--- a/2des/bcd/aula01/exemplo-excel.xlsx
+++ b/2des/bcd/aula01/exemplo-excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>CPF</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Quem - CPF</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>Registros</t>
   </si>
 </sst>
 </file>
@@ -119,11 +125,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -405,17 +414,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +436,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11111111111</v>
       </c>
@@ -436,8 +450,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>22222222222</v>
       </c>
@@ -447,8 +464,9 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>33333333333</v>
       </c>
@@ -458,8 +476,12 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:E4"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -468,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/2des/bcd/aula01/exemplo-excel.xlsx
+++ b/2des/bcd/aula01/exemplo-excel.xlsx
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,14 +490,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
